--- a/input/国美后台数据/美票宝投资总表（8、15、29）.xlsx
+++ b/input/国美后台数据/美票宝投资总表（8、15、29）.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[温金中心]Winfae\❀温金中心 · 事业部❀\【融通宝】\❀❀❀国美❀❀❀\5. 后台数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,6 +95,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -123,6 +119,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,6 +143,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -174,6 +172,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -181,6 +180,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -326,10 +326,13 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,9 +340,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -617,44 +617,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" ht="20.399999999999999">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="16.8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -726,7 +727,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16.8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -760,7 +761,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="16.8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -794,20 +795,20 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="16.8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="12">
         <f>SUM(J3:J5)</f>
         <v>298628</v>
